--- a/dist/document/dest/2020/10/doctors/203.xlsx
+++ b/dist/document/dest/2020/10/doctors/203.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>120</v>
       </c>
-      <c r="C2" s="1">
-        <v>690000</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>80080</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>307</v>
       </c>
-      <c r="C4" s="1">
-        <v>2363900</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>555</v>
       </c>
-      <c r="C5" s="1">
-        <v>1659450</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>90</v>
       </c>
-      <c r="C6" s="1">
-        <v>1262250</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>60</v>
       </c>
-      <c r="C7" s="1">
-        <v>495000</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>30</v>
       </c>
-      <c r="C8" s="1">
-        <v>762000</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>390</v>
       </c>
-      <c r="C9" s="1">
-        <v>1407900</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>210</v>
       </c>
-      <c r="C10" s="1">
-        <v>1381800</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
-        <v>1715</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>118</v>
       </c>
-      <c r="C12" s="1">
-        <v>1233100</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>990</v>
       </c>
-      <c r="C13" s="1">
-        <v>4098600</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>540</v>
       </c>
-      <c r="C14" s="1">
-        <v>2484000</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>210</v>
       </c>
-      <c r="C15" s="1">
-        <v>1201200</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>480</v>
       </c>
-      <c r="C16" s="1">
-        <v>2515200</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>450</v>
       </c>
-      <c r="C17" s="1">
-        <v>2439000</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>1170</v>
       </c>
-      <c r="C18" s="1">
-        <v>2960100</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>1440</v>
       </c>
-      <c r="C19" s="1">
-        <v>12355200</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>405</v>
       </c>
-      <c r="C20" s="1">
-        <v>684450</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>420</v>
       </c>
-      <c r="C21" s="1">
-        <v>485100</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>1590</v>
       </c>
-      <c r="C22" s="1">
-        <v>11893200</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>7</v>
       </c>
-      <c r="C23" s="1">
-        <v>38640</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>480</v>
       </c>
-      <c r="C24" s="1">
-        <v>2798400</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>25</v>
       </c>
-      <c r="C25" s="1">
-        <v>28750</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>180</v>
       </c>
-      <c r="C26" s="1">
-        <v>869400</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>7</v>
       </c>
-      <c r="C27" s="1">
-        <v>31570</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>120</v>
       </c>
-      <c r="C28" s="1">
-        <v>220800</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>30</v>
       </c>
-      <c r="C29" s="1">
-        <v>63600</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>32</v>
       </c>
-      <c r="C30" s="1">
-        <v>4793600</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>30</v>
       </c>
-      <c r="C31" s="1">
-        <v>741000</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>120</v>
       </c>
-      <c r="C32" s="1">
-        <v>552000</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>90</v>
       </c>
-      <c r="C33" s="1">
-        <v>222300</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>12</v>
       </c>
-      <c r="C34" s="1">
-        <v>3216000</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>525</v>
       </c>
-      <c r="C35" s="1">
-        <v>3018750</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>15</v>
       </c>
-      <c r="C36" s="1">
-        <v>6825</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>14</v>
       </c>
-      <c r="C37" s="1">
-        <v>29680</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>300</v>
       </c>
-      <c r="C38" s="1">
-        <v>2640000</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>60</v>
       </c>
-      <c r="C39" s="1">
-        <v>554400</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>30</v>
       </c>
-      <c r="C40" s="1">
-        <v>429000</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>30</v>
       </c>
-      <c r="C41" s="1">
-        <v>326700</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>840</v>
       </c>
-      <c r="C42" s="1">
-        <v>3381000</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>2205</v>
       </c>
-      <c r="C43" s="1">
-        <v>2789325</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>285</v>
       </c>
-      <c r="C44" s="1">
-        <v>732450</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>135</v>
       </c>
-      <c r="C45" s="1">
-        <v>217350</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>292</v>
       </c>
-      <c r="C46" s="1">
-        <v>2505360</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>540</v>
       </c>
-      <c r="C47" s="1">
-        <v>1055700</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>1860</v>
       </c>
-      <c r="C48" s="1">
-        <v>4491900</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>120</v>
       </c>
-      <c r="C49" s="1">
-        <v>1029600</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>555</v>
       </c>
-      <c r="C50" s="1">
-        <v>5799750</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -944,7 +797,7 @@
         <v>18528</v>
       </c>
       <c r="C51" s="1">
-        <v>95037095</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/203.xlsx
+++ b/dist/document/dest/2020/10/doctors/203.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,15 +402,21 @@
         <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>120</v>
+        <v>90</v>
+      </c>
+      <c r="C2" s="1">
+        <v>517500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Asentra (Sertraline 50mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B3" s="1">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>231000</v>
       </c>
     </row>
     <row r="4">
@@ -418,15 +424,21 @@
         <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B4" s="1">
-        <v>307</v>
+        <v>45</v>
+      </c>
+      <c r="C4" s="1">
+        <v>346500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Azukon MR (Gliclazide B.P 30mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>555</v>
+        <v>180</v>
+      </c>
+      <c r="C5" s="1">
+        <v>464400</v>
       </c>
     </row>
     <row r="6">
@@ -434,375 +446,873 @@
         <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>90</v>
+        <v>135</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1893375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Cardival (Valsartan 80mg)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1287000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Crestor (Rosuvastatin 20mg)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B8" s="1">
         <v>30</v>
       </c>
+      <c r="C8" s="1">
+        <v>103500</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Diamicron MR 30mg (Gliclazide)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>390</v>
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>103500</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Diamicron MR 60mg (Gliclazide)</v>
+        <v>Daflon (Diosmin, hesperidin)</v>
       </c>
       <c r="B10" s="1">
-        <v>210</v>
+        <v>60</v>
+      </c>
+      <c r="C10" s="1">
+        <v>246600</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Diurefar (Furosemide 40mg)</v>
+        <v>Diamicron MR 30mg (Gliclazide)</v>
       </c>
       <c r="B11" s="1">
-        <v>7</v>
+        <v>240</v>
+      </c>
+      <c r="C11" s="1">
+        <v>866400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Esocon  20mg (Esomeprazole)</v>
+        <v>Diamicron MR 30mg (Gliclazide)</v>
       </c>
       <c r="B12" s="1">
-        <v>118</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>108300</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Flodilan-4 (Glimepirid)</v>
+        <v>Diamicron MR 30mg (Gliclazide)</v>
       </c>
       <c r="B13" s="1">
-        <v>990</v>
+        <v>90</v>
+      </c>
+      <c r="C13" s="1">
+        <v>324900</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Genprid 2 (Glimepiride 2mg)</v>
+        <v>Diamicron MR 60mg (Gliclazide)</v>
       </c>
       <c r="B14" s="1">
-        <v>540</v>
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>197400</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Genprid 4 (Glimepiride 4mg)</v>
+        <v>Diamicron MR 60mg (Gliclazide)</v>
       </c>
       <c r="B15" s="1">
-        <v>210</v>
+        <v>90</v>
+      </c>
+      <c r="C15" s="1">
+        <v>592200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Glucovance 500/2.5 (Metformin-glibenclamide)</v>
+        <v>Diamicron MR 60mg (Gliclazide)</v>
       </c>
       <c r="B16" s="1">
-        <v>480</v>
+        <v>180</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1184400</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Glucovance 500/5 (Mefformin-glibenclamide)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B17" s="1">
-        <v>450</v>
+        <v>14</v>
+      </c>
+      <c r="C17" s="1">
+        <v>146300</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Gluphakaps (Metformin 850mg)</v>
+        <v>Flodilan-4 (Glimepirid)</v>
       </c>
       <c r="B18" s="1">
-        <v>1170</v>
+        <v>180</v>
+      </c>
+      <c r="C18" s="1">
+        <v>745200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Goldagtin (Vildagliptin 50mg)</v>
+        <v>Flodilan-4 (Glimepirid)</v>
       </c>
       <c r="B19" s="1">
-        <v>1440</v>
+        <v>450</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1863000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Levothyrox 100mcg (Levothyroxine)</v>
+        <v>Flodilan-4 (Glimepirid)</v>
       </c>
       <c r="B20" s="1">
-        <v>405</v>
+        <v>930</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3850200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Levothyrox 50mcg (Levothyroxine)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>420</v>
+        <v>180</v>
+      </c>
+      <c r="C21" s="1">
+        <v>828000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Livosil (Silymarin 140mg)</v>
+        <v>Genprid 2 (Glimepiride 2mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>1590</v>
+        <v>60</v>
+      </c>
+      <c r="C22" s="1">
+        <v>276000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Glucovance 500/2.5 (Metformin-glibenclamide)</v>
       </c>
       <c r="B23" s="1">
-        <v>7</v>
+        <v>480</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2515200</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+        <v>Glucovance 500/2.5 (Metformin-glibenclamide)</v>
       </c>
       <c r="B24" s="1">
-        <v>480</v>
+        <v>270</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1414800</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Lothisil (PTU-Propylthiouracil 50mg)</v>
+        <v>Glucovance 500/2.5 (Metformin-glibenclamide)</v>
       </c>
       <c r="B25" s="1">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="C25" s="1">
+        <v>157200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Glucovance 500/5 (Mefformin-glibenclamide)</v>
       </c>
       <c r="B26" s="1">
         <v>180</v>
       </c>
+      <c r="C26" s="1">
+        <v>975600</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Medrol 16mg (Methylprednisolone)</v>
+        <v>Gluphakaps (Metformin 850mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>7</v>
+        <v>180</v>
+      </c>
+      <c r="C27" s="1">
+        <v>455400</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Metozamin (Metformin 850mg)</v>
+        <v>Gluphakaps (Metformin 850mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>120</v>
+        <v>360</v>
+      </c>
+      <c r="C28" s="1">
+        <v>910800</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v xml:space="preserve">Mg B6 </v>
+        <v>Gluphakaps (Metformin 850mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>30</v>
+        <v>210</v>
+      </c>
+      <c r="C29" s="1">
+        <v>531300</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Mixtard 30 Flexpen 100IU/ml</v>
+        <v>Goldagtin (Vildagliptin 50mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>32</v>
+        <v>660</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5662800</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Nexium (Esomeprazole 20mg)</v>
+        <v>Goldagtin (Vildagliptin 50mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>30</v>
+        <v>540</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4633200</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Goldagtin (Vildagliptin 50mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>120</v>
+        <v>870</v>
+      </c>
+      <c r="C32" s="1">
+        <v>7464600</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
       </c>
       <c r="B33" s="1">
         <v>90</v>
       </c>
+      <c r="C33" s="1">
+        <v>310500</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v xml:space="preserve">Novomix Flexpen </v>
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="C34" s="1">
+        <v>103500</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Oftofacin (Atorvastatin 20mg)</v>
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
       </c>
       <c r="B35" s="1">
-        <v>525</v>
+        <v>30</v>
+      </c>
+      <c r="C35" s="1">
+        <v>106950</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v xml:space="preserve">Prednisone </v>
+        <v>Janumet (Sitagliptin 50mg+metformin 850mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>15</v>
+        <v>60</v>
+      </c>
+      <c r="C36" s="1">
+        <v>702000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Primpéran (viên) (Metoclopramide 10mg)</v>
+        <v>Lantus Solostar 100IU/ml</v>
       </c>
       <c r="B37" s="1">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2960000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+        <v>Lantus Solostar 100IU/ml</v>
       </c>
       <c r="B38" s="1">
-        <v>300</v>
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>296000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Remem (Ginkgo biloba 120mg)</v>
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
       </c>
       <c r="B39" s="1">
-        <v>60</v>
+        <v>270</v>
+      </c>
+      <c r="C39" s="1">
+        <v>456300</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Sotig (Esomeprazole 40mg)</v>
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
       </c>
       <c r="B40" s="1">
-        <v>30</v>
+        <v>80</v>
+      </c>
+      <c r="C40" s="1">
+        <v>135200</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
       </c>
       <c r="B41" s="1">
-        <v>30</v>
+        <v>270</v>
+      </c>
+      <c r="C41" s="1">
+        <v>456300</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Targinos (Arginine 400mg)</v>
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
       </c>
       <c r="B42" s="1">
-        <v>840</v>
+        <v>90</v>
+      </c>
+      <c r="C42" s="1">
+        <v>103950</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Tazilex (Methimazol 5mg)</v>
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
       </c>
       <c r="B43" s="1">
-        <v>2205</v>
+        <v>90</v>
+      </c>
+      <c r="C43" s="1">
+        <v>103950</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Thyrozol 10mg (Thiamazole)</v>
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
       </c>
       <c r="B44" s="1">
-        <v>285</v>
+        <v>120</v>
+      </c>
+      <c r="C44" s="1">
+        <v>138600</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Thyrozol 5mg (Thiamazole)</v>
+        <v>Livosil (Silymarin 140mg)</v>
       </c>
       <c r="B45" s="1">
-        <v>135</v>
+        <v>330</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2468400</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Toropi (Lercanidipine 10mg)</v>
+        <v>Livosil (Silymarin 140mg)</v>
       </c>
       <c r="B46" s="1">
-        <v>292</v>
+        <v>60</v>
+      </c>
+      <c r="C46" s="1">
+        <v>448800</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Trisova (Trimetazidine 20mg)</v>
+        <v>Livosil (Silymarin 140mg)</v>
       </c>
       <c r="B47" s="1">
         <v>540</v>
       </c>
+      <c r="C47" s="1">
+        <v>4039200</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Tyrozet (Metformin 850mg)</v>
+        <v>Livosil (Silymarin 140mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>1860</v>
+        <v>810</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6058800</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Vigorito (Vildagliptin 50mg)</v>
+        <v>Lorista (Losartan 50mg)</v>
       </c>
       <c r="B49" s="1">
-        <v>120</v>
+        <v>90</v>
+      </c>
+      <c r="C49" s="1">
+        <v>496800</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Zlatko-50 (Sitagliptin)</v>
+        <v>Lorista (Losartan 50mg)</v>
       </c>
       <c r="B50" s="1">
-        <v>555</v>
+        <v>90</v>
+      </c>
+      <c r="C50" s="1">
+        <v>496800</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B51" s="1">
+        <v>120</v>
+      </c>
+      <c r="C51" s="1">
+        <v>699600</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B52" s="1">
+        <v>180</v>
+      </c>
+      <c r="C52" s="1">
+        <v>869400</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Medrol 4mg (Methylprednisolone)</v>
+      </c>
+      <c r="B53" s="1">
+        <v>14</v>
+      </c>
+      <c r="C53" s="1">
+        <v>17780</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Mixtard 30 Flexpen 100IU/ml</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1">
+        <v>599200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Neurontin (Gabapentin 300mg)</v>
+      </c>
+      <c r="B55" s="1">
+        <v>90</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1161000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B56" s="1">
+        <v>60</v>
+      </c>
+      <c r="C56" s="1">
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B57" s="1">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1">
+        <v>24700</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>20</v>
+      </c>
+      <c r="C58" s="1">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>60</v>
+      </c>
+      <c r="C59" s="1">
+        <v>554400</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Rotalzon (Losartan 50mg)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>30</v>
+      </c>
+      <c r="C60" s="1">
+        <v>214500</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>180</v>
+      </c>
+      <c r="C61" s="1">
+        <v>713700</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B62" s="1">
+        <v>510</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2022150</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>60</v>
+      </c>
+      <c r="C63" s="1">
+        <v>237900</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B64" s="1">
+        <v>90</v>
+      </c>
+      <c r="C64" s="1">
+        <v>980100</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B65" s="1">
+        <v>270</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1086750</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B66" s="1">
+        <v>60</v>
+      </c>
+      <c r="C66" s="1">
+        <v>75900</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B67" s="1">
+        <v>480</v>
+      </c>
+      <c r="C67" s="1">
+        <v>607200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>668</v>
+      </c>
+      <c r="C68" s="1">
+        <v>845020</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>300</v>
+      </c>
+      <c r="C69" s="1">
+        <v>379500</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Thyrozol 10mg (Thiamazole)</v>
+      </c>
+      <c r="B70" s="1">
+        <v>120</v>
+      </c>
+      <c r="C70" s="1">
+        <v>308400</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Thyrozol 10mg (Thiamazole)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>120</v>
+      </c>
+      <c r="C71" s="1">
+        <v>308400</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B72" s="1">
+        <v>90</v>
+      </c>
+      <c r="C72" s="1">
+        <v>144900</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45</v>
+      </c>
+      <c r="C73" s="1">
+        <v>72450</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>210</v>
+      </c>
+      <c r="C74" s="1">
+        <v>338100</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>120</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1029600</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>240</v>
+      </c>
+      <c r="C76" s="1">
+        <v>469200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>60</v>
+      </c>
+      <c r="C77" s="1">
+        <v>117300</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>300</v>
+      </c>
+      <c r="C78" s="1">
+        <v>586500</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B79" s="1">
+        <v>90</v>
+      </c>
+      <c r="C79" s="1">
+        <v>217350</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B80" s="1">
+        <v>780</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1883700</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Tyrozet (Metformin 850mg)</v>
+      </c>
+      <c r="B81" s="1">
+        <v>330</v>
+      </c>
+      <c r="C81" s="1">
+        <v>796950</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B82" s="1">
+        <v>60</v>
+      </c>
+      <c r="C82" s="1">
+        <v>514800</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Zlatko-50 (Sitagliptin)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>90</v>
+      </c>
+      <c r="C83" s="1">
+        <v>940500</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B51" s="1">
-        <v>18528</v>
-      </c>
-      <c r="C51" s="1">
-        <v>NaN</v>
+      <c r="B84" s="1">
+        <v>15866</v>
+      </c>
+      <c r="C84" s="1">
+        <v>79920975</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C84"/>
   </ignoredErrors>
 </worksheet>
 </file>